--- a/Webserver/WPF/Resources/Shablon.xlsx
+++ b/Webserver/WPF/Resources/Shablon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADDmen\source\repos\PhoneService\Webserver\WPF\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noytbuk\Documents\GitHub\PhoneService\Webserver\WPF\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099FD14E-895D-4112-8787-E2000A21C679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29381CAE-6D5F-46CD-8359-25C2DDDA75D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>№</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Количество:</t>
   </si>
   <si>
-    <t>До:</t>
-  </si>
-  <si>
-    <t>За период</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -75,22 +69,30 @@
     <t>Описание неисправности</t>
   </si>
   <si>
-    <t>Заключение диагностики</t>
-  </si>
-  <si>
     <t>Согласие на ремнот</t>
+  </si>
+  <si>
+    <t>Сумма заказа</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -244,28 +246,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -281,75 +261,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -637,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,108 +625,190 @@
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="F7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="F8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="F9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="G3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="F7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="G9" s="20"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
